--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -1,23 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="print2" sheetId="2" r:id="rId1"/>
+    <sheet name="print1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="print2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">print2!$A$1:$K$40</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">print2!$A$1:$K$40</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>карта експлуатації інструменту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ОБОВ´ЯЗКИ ОПЕРАТОРА НАПІВАВТОМАТУ АБО ОПЕРАТОРА НАРІЗ.АВТОМАТУ:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРИ ДОСЯГНЕННІ ЗАДАНОЇ КІЛЬКОСТІ (+ / - 5 000 ЦИКЛІВ)  ЗАПРЕСОВАНИХ КОНТАКТІВ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЛЯ ОБСЛУГОВУВАННЯ (ДИВ.ТАБ.СТОР.2) ,ПІСЛЯ ЗАКІНЧЕННЯ ВИР.ПАРТІЇ , ПЕРЕДАТИ ПРЕС.ІНСТРУМЕНТ </t>
+  </si>
+  <si>
+    <t>ТА 3(ТРИ) ЗРАЗКА З ОСТАННЬОЇ ПАРТІЇ НА ПОТОЧНЕ ОБСУГОВУВАННЯ ДО ВИДАВАЛЬНІ.</t>
+  </si>
+  <si>
+    <t>рік:</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Номер Інструменту</t>
+  </si>
   <si>
     <t>Дата</t>
   </si>
@@ -46,6 +71,12 @@
     <t>примітки</t>
   </si>
   <si>
+    <t>F2-02-08-8 карта експлуатації інструменту</t>
+  </si>
+  <si>
+    <t>№ карти:</t>
+  </si>
+  <si>
     <t>Нову карту видав:</t>
   </si>
   <si>
@@ -79,108 +110,150 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 43814</t>
+    <t>correction is: 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="0"/>
+  <fonts count="17">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <charset val="238"/>
+      <family val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="26"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <charset val="204"/>
       <family val="2"/>
-      <charset val="238"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="26"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -556,199 +629,261 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="91">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="7" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="23" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="28" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="29" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1036,697 +1171,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="3" min="1" style="89" width="9.7109375"/>
+    <col customWidth="1" max="5" min="4" style="89" width="20.7109375"/>
+    <col customWidth="1" max="7" min="6" style="89" width="9.7109375"/>
+    <col customWidth="1" max="8" min="8" style="89" width="10.7109375"/>
+    <col customWidth="1" max="9" min="9" style="89" width="30.7109375"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="33.75" r="1" s="89" spans="1:9">
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="80" t="n"/>
+      <c r="F1" s="81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.1" r="2" s="89" spans="1:9">
+      <c r="A2" s="3" t="n"/>
+      <c r="D2" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.1" r="3" s="89" spans="1:9">
+      <c r="A3" s="4" t="n"/>
+      <c r="D3" s="78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.1" r="4" s="89" spans="1:9">
+      <c r="A4" s="4" t="n"/>
+      <c r="D4" s="78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.1" r="5" s="89" spans="1:9">
+      <c r="A5" s="4" t="n"/>
+      <c r="D5" s="78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="0.75" r="6" s="89" spans="1:9">
+      <c r="A6" s="4" t="n"/>
+      <c r="D6" s="78" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="89" spans="1:9" thickBot="1">
+      <c r="A7" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="8" s="89" spans="1:9" thickBot="1">
+      <c r="A8" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="n"/>
+      <c r="D8" s="26" t="n"/>
+      <c r="E8" s="26" t="n"/>
+      <c r="G8" s="41" t="n"/>
+      <c r="H8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="89" spans="1:9" thickBot="1">
+      <c r="A9" s="26" t="n"/>
+      <c r="C9" s="26" t="n"/>
+      <c r="D9" s="26" t="n"/>
+      <c r="E9" s="26" t="n"/>
+      <c r="F9" s="26" t="n"/>
+      <c r="G9" s="26" t="n"/>
+      <c r="H9" s="26" t="n"/>
+      <c r="I9" s="26" t="n"/>
+    </row>
+    <row customHeight="1" ht="69.95" r="10" s="89" spans="1:9" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="26.1" r="11" s="89" spans="1:9">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="n"/>
+      <c r="F11" s="11" t="n"/>
+      <c r="G11" s="11" t="n"/>
+      <c r="H11" s="11" t="n"/>
+      <c r="I11" s="35" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="12" s="89" spans="1:9">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="13" s="89" spans="1:9">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="14" s="89" spans="1:9">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="10" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="15" s="89" spans="1:9">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="16" s="89" spans="1:9">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="17" s="89" spans="1:9">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="18" s="89" spans="1:9">
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="19" s="89" spans="1:9">
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="20" s="89" spans="1:9">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="21" s="89" spans="1:9">
+      <c r="A21" s="16" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="22" s="89" spans="1:9">
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="23" s="89" spans="1:9">
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="24" s="89" spans="1:9">
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="25" s="89" spans="1:9">
+      <c r="A25" s="16" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="26" s="89" spans="1:9">
+      <c r="A26" s="16" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="27" s="89" spans="1:9">
+      <c r="A27" s="16" t="n"/>
+      <c r="B27" s="10" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+      <c r="I27" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="28" s="89" spans="1:9">
+      <c r="A28" s="16" t="n"/>
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+      <c r="I28" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="29" s="89" spans="1:9">
+      <c r="A29" s="16" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="30" s="89" spans="1:9">
+      <c r="A30" s="16" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="31" s="89" spans="1:9">
+      <c r="A31" s="16" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="32" s="89" spans="1:9">
+      <c r="A32" s="16" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="10" t="n"/>
+      <c r="G32" s="10" t="n"/>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="33" s="89" spans="1:9">
+      <c r="A33" s="16" t="n"/>
+      <c r="B33" s="10" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="10" t="n"/>
+      <c r="G33" s="10" t="n"/>
+      <c r="H33" s="10" t="n"/>
+      <c r="I33" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="34" s="89" spans="1:9">
+      <c r="A34" s="16" t="n"/>
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="10" t="n"/>
+      <c r="G34" s="10" t="n"/>
+      <c r="H34" s="10" t="n"/>
+      <c r="I34" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="35" s="89" spans="1:9">
+      <c r="A35" s="16" t="n"/>
+      <c r="B35" s="10" t="n"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="10" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="10" t="n"/>
+      <c r="G35" s="10" t="n"/>
+      <c r="H35" s="10" t="n"/>
+      <c r="I35" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="36" s="89" spans="1:9">
+      <c r="A36" s="16" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="9" t="n"/>
+      <c r="F36" s="10" t="n"/>
+      <c r="G36" s="10" t="n"/>
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="37" s="89" spans="1:9">
+      <c r="A37" s="16" t="n"/>
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="10" t="n"/>
+      <c r="G37" s="10" t="n"/>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="38" s="89" spans="1:9">
+      <c r="A38" s="16" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="10" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="10" t="n"/>
+      <c r="G38" s="10" t="n"/>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="39" s="89" spans="1:9">
+      <c r="A39" s="16" t="n"/>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="10" t="n"/>
+      <c r="G39" s="10" t="n"/>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="40" s="89" spans="1:9">
+      <c r="A40" s="16" t="n"/>
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="10" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="10" t="n"/>
+      <c r="G40" s="10" t="n"/>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="41" s="89" spans="1:9">
+      <c r="A41" s="16" t="n"/>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="10" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="10" t="n"/>
+      <c r="G41" s="10" t="n"/>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="42" s="89" spans="1:9">
+      <c r="A42" s="16" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="43" s="89" spans="1:9" thickBot="1">
+      <c r="A43" s="64" t="n"/>
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="65" t="n"/>
+      <c r="D43" s="65" t="n"/>
+      <c r="E43" s="66" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="65" t="n"/>
+      <c r="H43" s="65" t="n"/>
+      <c r="I43" s="67" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="44" s="89" spans="1:9" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="90" t="n"/>
+      <c r="E44" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="90" t="n"/>
+      <c r="H44" s="90" t="n"/>
+      <c r="I44" s="20" t="n">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="90" t="n"/>
+      <c r="B45" s="90" t="n"/>
+      <c r="C45" s="90" t="n"/>
+      <c r="D45" s="90" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="90" t="n"/>
+      <c r="G45" s="90" t="n"/>
+      <c r="H45" s="90" t="n"/>
+      <c r="I45" s="90" t="n"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0" footer="0.3149606299212598" header="0.3149606299212598" left="0.2362204724409449" right="0.2362204724409449" top="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="75" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.7109375" style="65" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="65" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="65" customWidth="1"/>
-    <col min="9" max="11" width="9.7109375" style="65" customWidth="1"/>
-    <col min="12" max="17" width="9.140625" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="65"/>
+    <col customWidth="1" max="3" min="1" style="89" width="9.7109375"/>
+    <col customWidth="1" max="5" min="4" style="89" width="20.7109375"/>
+    <col customWidth="1" max="7" min="6" style="89" width="9.7109375"/>
+    <col customWidth="1" max="8" min="8" style="89" width="10.7109375"/>
+    <col customWidth="1" max="11" min="9" style="89" width="9.7109375"/>
+    <col customWidth="1" max="16" min="12" style="89" width="9.140625"/>
+    <col customWidth="1" max="16384" min="17" style="89" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62" t="s">
+    <row customHeight="1" ht="15.75" r="1" s="89" spans="1:11" thickBot="1">
+      <c r="A1" s="90" t="n"/>
+      <c r="B1" s="90" t="n"/>
+      <c r="C1" s="90" t="n"/>
+      <c r="D1" s="90" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="90" t="n"/>
+      <c r="G1" s="90" t="n"/>
+      <c r="H1" s="90" t="n"/>
+      <c r="I1" s="90" t="n"/>
+    </row>
+    <row customHeight="1" ht="60.75" r="2" s="89" spans="1:11" thickBot="1">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="53"/>
-    </row>
-    <row r="17" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="53"/>
-    </row>
-    <row r="19" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="55"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="55"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="55"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="55"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="55"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="55"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="66"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="38" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="38" t="s">
+      <c r="D2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="64">
-        <v>24349298</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="27" t="s">
+      <c r="E2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="F2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="38" t="s">
+      <c r="H2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="17">
+      <c r="I2" s="77" t="n"/>
+      <c r="J2" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="3" s="89" spans="1:11">
+      <c r="A3" s="15" t="n"/>
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="11" t="n"/>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="11" t="n"/>
+      <c r="I3" s="35" t="n"/>
+      <c r="J3" s="37" t="n"/>
+      <c r="K3" s="62" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="4" s="89" spans="1:11">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="36" t="n"/>
+      <c r="K4" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="5" s="89" spans="1:11">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="36" t="n"/>
+      <c r="K5" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="6" s="89" spans="1:11">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="7" s="89" spans="1:11">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="10" t="n"/>
+      <c r="I7" s="28" t="n"/>
+      <c r="J7" s="36" t="n"/>
+      <c r="K7" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="8" s="89" spans="1:11">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="36" t="n"/>
+      <c r="K8" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="9" s="89" spans="1:11">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="36" t="n"/>
+      <c r="K9" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="10" s="89" spans="1:11">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="36" t="n"/>
+      <c r="K10" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="11" s="89" spans="1:11">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="10" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="28" t="n"/>
+      <c r="J11" s="36" t="n"/>
+      <c r="K11" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="12" s="89" spans="1:11">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="10" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="28" t="n"/>
+      <c r="J12" s="36" t="n"/>
+      <c r="K12" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="13" s="89" spans="1:11">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="28" t="n"/>
+      <c r="J13" s="36" t="n"/>
+      <c r="K13" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="14" s="89" spans="1:11">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="10" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="28" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="15" s="89" spans="1:11">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="28" t="n"/>
+      <c r="J15" s="36" t="n"/>
+      <c r="K15" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="16" s="89" spans="1:11">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="36" t="n"/>
+      <c r="K16" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="17" s="89" spans="1:11">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="28" t="n"/>
+      <c r="J17" s="36" t="n"/>
+      <c r="K17" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="18" s="89" spans="1:11">
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="36" t="n"/>
+      <c r="K18" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="19" s="89" spans="1:11">
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="28" t="n"/>
+      <c r="J19" s="36" t="n"/>
+      <c r="K19" s="63" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="20" s="89" spans="1:11">
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="38" t="n"/>
+      <c r="J20" s="39" t="n"/>
+      <c r="K20" s="68" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="21" s="89" spans="1:11">
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="29" t="n"/>
+      <c r="I21" s="29" t="n"/>
+      <c r="J21" s="40" t="n"/>
+      <c r="K21" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="22" s="89" spans="1:11">
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="29" t="n"/>
+      <c r="J22" s="40" t="n"/>
+      <c r="K22" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="23" s="89" spans="1:11">
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="14" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="14" t="n"/>
+      <c r="I23" s="29" t="n"/>
+      <c r="J23" s="40" t="n"/>
+      <c r="K23" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="24" s="89" spans="1:11">
+      <c r="A24" s="17" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="14" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14" t="n"/>
+      <c r="G24" s="14" t="n"/>
+      <c r="H24" s="14" t="n"/>
+      <c r="I24" s="29" t="n"/>
+      <c r="J24" s="40" t="n"/>
+      <c r="K24" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="25" s="89" spans="1:11">
+      <c r="A25" s="17" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="14" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14" t="n"/>
+      <c r="G25" s="14" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="29" t="n"/>
+      <c r="J25" s="40" t="n"/>
+      <c r="K25" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="26" s="89" spans="1:11">
+      <c r="A26" s="17" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="14" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="14" t="n"/>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="29" t="n"/>
+      <c r="J26" s="40" t="n"/>
+      <c r="K26" s="69" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="27" s="89" spans="1:11" thickBot="1">
+      <c r="A27" s="18" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="19" t="n"/>
+      <c r="D27" s="19" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
+      <c r="H27" s="19" t="n"/>
+      <c r="I27" s="30" t="n"/>
+      <c r="J27" s="70" t="n"/>
+      <c r="K27" s="71" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="28" s="89" spans="1:11" thickBot="1">
+      <c r="A28" s="88" t="n"/>
+      <c r="K28" s="90" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="29" s="89" spans="1:11" thickBot="1">
+      <c r="A29" s="32" t="n"/>
+      <c r="B29" s="73" t="n"/>
+      <c r="C29" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="44" t="n"/>
+      <c r="E29" s="73" t="n"/>
+      <c r="F29" s="60" t="n"/>
+      <c r="G29" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="73" t="n"/>
+      <c r="I29" s="73" t="n"/>
+      <c r="J29" s="73" t="n"/>
+      <c r="K29" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="30" s="89" spans="1:11" thickBot="1">
+      <c r="A30" s="32" t="n"/>
+      <c r="B30" s="73" t="n"/>
+      <c r="C30" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="87" t="n">
+        <v>22</v>
+      </c>
+      <c r="E30" s="82" t="n"/>
+      <c r="F30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="26.1" r="31" s="89" spans="1:11" thickBot="1">
+      <c r="A31" s="32" t="n"/>
+      <c r="B31" s="73" t="n"/>
+      <c r="C31" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="82" t="n"/>
+      <c r="F31" s="22" t="n">
         <v>30000</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="4">
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="82" t="n"/>
+      <c r="I31" s="8" t="n">
         <v>330000</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="61"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="18">
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="32" s="89" spans="1:11" thickBot="1">
+      <c r="A32" s="32" t="n"/>
+      <c r="B32" s="73" t="n"/>
+      <c r="C32" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="31" t="n"/>
+      <c r="E32" s="82" t="n"/>
+      <c r="F32" s="23" t="n">
         <v>60000</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="16">
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="82" t="n"/>
+      <c r="I32" s="21" t="n">
         <v>360000</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="61"/>
-    </row>
-    <row r="33" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="17">
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="33" s="89" spans="1:11" thickBot="1">
+      <c r="A33" s="32" t="n"/>
+      <c r="B33" s="73" t="n"/>
+      <c r="C33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="31" t="n"/>
+      <c r="E33" s="82" t="n"/>
+      <c r="F33" s="22" t="n">
         <v>90000</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="4">
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="82" t="n"/>
+      <c r="I33" s="8" t="n">
         <v>390000</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="61"/>
-    </row>
-    <row r="34" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="17">
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="34" s="89" spans="1:11" thickBot="1">
+      <c r="A34" s="32" t="n"/>
+      <c r="B34" s="73" t="n"/>
+      <c r="C34" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="47" t="n"/>
+      <c r="E34" s="48" t="n"/>
+      <c r="F34" s="22" t="n">
         <v>120000</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="4">
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="82" t="n"/>
+      <c r="I34" s="8" t="n">
         <v>420000</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="61"/>
-    </row>
-    <row r="35" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A35" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="17">
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="35" s="89" spans="1:11" thickBot="1">
+      <c r="A35" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="50" t="n"/>
+      <c r="E35" s="51" t="n"/>
+      <c r="F35" s="22" t="n">
         <v>150000</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="4">
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="82" t="n"/>
+      <c r="I35" s="8" t="n">
         <v>450000</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="61"/>
-    </row>
-    <row r="36" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="17">
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="36" s="89" spans="1:11" thickBot="1">
+      <c r="A36" s="52" t="n"/>
+      <c r="B36" s="46" t="n"/>
+      <c r="C36" s="46" t="n"/>
+      <c r="D36" s="90" t="n"/>
+      <c r="E36" s="53" t="n"/>
+      <c r="F36" s="22" t="n">
         <v>180000</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="4">
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="82" t="n"/>
+      <c r="I36" s="8" t="n">
         <v>480000</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="61"/>
-    </row>
-    <row r="37" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="17">
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="37" s="89" spans="1:11" thickBot="1">
+      <c r="A37" s="52" t="n"/>
+      <c r="B37" s="46" t="n"/>
+      <c r="C37" s="46" t="n"/>
+      <c r="D37" s="46" t="n"/>
+      <c r="E37" s="53" t="n"/>
+      <c r="F37" s="22" t="n">
         <v>210000</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="4">
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="82" t="n"/>
+      <c r="I37" s="8" t="n">
         <v>510000</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="61"/>
-    </row>
-    <row r="38" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="17">
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="38" s="89" spans="1:11" thickBot="1">
+      <c r="A38" s="52" t="n"/>
+      <c r="B38" s="46" t="n"/>
+      <c r="C38" s="46" t="n"/>
+      <c r="D38" s="46" t="n"/>
+      <c r="E38" s="53" t="n"/>
+      <c r="F38" s="22" t="n">
         <v>240000</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="4">
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="82" t="n"/>
+      <c r="I38" s="8" t="n">
         <v>540000</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="61"/>
-    </row>
-    <row r="39" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="17">
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="39" s="89" spans="1:11" thickBot="1">
+      <c r="A39" s="52" t="n"/>
+      <c r="B39" s="46" t="n"/>
+      <c r="C39" s="46" t="n"/>
+      <c r="D39" s="46" t="n"/>
+      <c r="E39" s="53" t="n"/>
+      <c r="F39" s="22" t="n">
         <v>270000</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="4">
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="82" t="n"/>
+      <c r="I39" s="8" t="n">
         <v>570000</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="61"/>
-    </row>
-    <row r="40" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="17">
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="40" s="89" spans="1:11" thickBot="1">
+      <c r="A40" s="54" t="n"/>
+      <c r="B40" s="55" t="n"/>
+      <c r="C40" s="55" t="n"/>
+      <c r="D40" s="55" t="n"/>
+      <c r="E40" s="56" t="n"/>
+      <c r="F40" s="22" t="n">
         <v>300000</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="4">
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="82" t="n"/>
+      <c r="I40" s="8" t="n">
         <v>600000</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="61"/>
-    </row>
-    <row r="41" spans="1:11" ht="69.95" customHeight="1"/>
-    <row r="42" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="43" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="44" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="45" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="46" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="47" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="48" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="49" ht="26.1" customHeight="1"/>
-    <row r="50" ht="26.1" customHeight="1"/>
-    <row r="51" ht="26.1" customHeight="1"/>
-    <row r="52" ht="26.1" customHeight="1"/>
-    <row r="53" ht="26.1" customHeight="1"/>
-    <row r="54" ht="26.1" customHeight="1"/>
-    <row r="55" ht="26.1" customHeight="1"/>
-    <row r="56" ht="26.1" customHeight="1"/>
-    <row r="57" ht="26.1" customHeight="1"/>
-    <row r="58" ht="26.1" customHeight="1"/>
-    <row r="59" ht="26.1" customHeight="1"/>
-    <row r="60" ht="26.1" customHeight="1"/>
-    <row r="61" ht="26.1" customHeight="1"/>
-    <row r="62" ht="26.1" customHeight="1"/>
-    <row r="63" ht="26.1" customHeight="1"/>
-    <row r="64" ht="26.1" customHeight="1"/>
-    <row r="65" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="66" spans="1:11" ht="26.1" customHeight="1"/>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="68" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="69" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="70" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="71" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="72" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="73" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="74" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="75" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="76" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="77" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="78" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="79" spans="1:11" ht="24.95" customHeight="1"/>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="82" t="n"/>
+    </row>
+    <row customHeight="1" ht="69.95" r="41" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="42" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="43" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="44" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="45" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="46" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="47" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="48" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="49" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="50" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="51" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="52" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="53" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="54" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="55" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="56" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="57" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="58" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="59" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="60" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="61" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="62" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="63" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="64" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="65" s="89" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="66" s="89" spans="1:11"/>
+    <row customHeight="1" ht="15.75" r="67" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="68" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="69" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="70" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="71" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="72" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="73" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="74" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="75" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="76" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="77" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="78" s="89" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="79" s="89" spans="1:11"/>
+    <row customHeight="1" ht="15.75" r="80" s="89" spans="1:11">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0" footer="0.3149606299212598" header="0.3149606299212598" left="0.2362204724409449" right="0.2362204724409449" top="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="76" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -110,7 +110,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 12</t>
+    <t>correction is: 90</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="87" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="E30" s="82" t="n"/>
       <c r="F30" s="33" t="s">

--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -110,7 +110,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 90</t>
+    <t>correction is: -5</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="87" t="n">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="E30" s="82" t="n"/>
       <c r="F30" s="33" t="s">

--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="64" t="n">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="E30" s="61" t="n"/>
       <c r="F30" s="27" t="s">

--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -78,7 +78,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 0</t>
+    <t>correction is: 5</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="64" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E30" s="61" t="n"/>
       <c r="F30" s="27" t="s">

--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -78,7 +78,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 5</t>
+    <t>correction is: 0</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="64" t="n">
-        <v>25</v>
+        <v>5698741692</v>
       </c>
       <c r="E30" s="61" t="n"/>
       <c r="F30" s="27" t="s">

--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="print2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">print2!$A$1:$K$40</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">print2!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Дата</t>
   </si>
@@ -45,6 +45,18 @@
     <t>примітки</t>
   </si>
   <si>
+    <t>видати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нову </t>
+  </si>
+  <si>
+    <t>ка</t>
+  </si>
+  <si>
+    <t>рту</t>
+  </si>
+  <si>
     <t>Нову карту видав:</t>
   </si>
   <si>
@@ -78,7 +90,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 0</t>
+    <t>correction is: 4624</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -177,6 +189,13 @@
       <color theme="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="28"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -558,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -736,6 +755,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -745,7 +776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" name="Звичайний" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1042,33 +1073,34 @@
   </sheetPr>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="68" width="9.7109375"/>
-    <col customWidth="1" max="5" min="4" style="68" width="20.7109375"/>
-    <col customWidth="1" max="7" min="6" style="68" width="9.7109375"/>
-    <col customWidth="1" max="8" min="8" style="68" width="10.7109375"/>
-    <col customWidth="1" max="11" min="9" style="68" width="9.7109375"/>
-    <col customWidth="1" max="17" min="12" style="68" width="9.140625"/>
-    <col customWidth="1" max="16384" min="18" style="68" width="9.140625"/>
+    <col customWidth="1" max="3" min="1" style="72" width="9.7109375"/>
+    <col customWidth="1" max="5" min="4" style="72" width="20.7109375"/>
+    <col customWidth="1" max="7" min="6" style="72" width="9.7109375"/>
+    <col customWidth="1" max="8" min="8" style="72" width="10.7109375"/>
+    <col customWidth="1" max="11" min="9" style="72" width="9.7109375"/>
+    <col customWidth="1" max="12" min="12" style="72" width="2.7109375"/>
+    <col customWidth="1" max="20" min="13" style="72" width="9.140625"/>
+    <col customWidth="1" max="16384" min="21" style="72" width="9.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="68" spans="1:11" thickBot="1">
-      <c r="A1" s="69" t="n"/>
-      <c r="B1" s="69" t="n"/>
-      <c r="C1" s="69" t="n"/>
-      <c r="D1" s="69" t="n"/>
+    <row customHeight="1" ht="15.75" r="1" s="72" spans="1:11" thickBot="1">
+      <c r="A1" s="73" t="n"/>
+      <c r="B1" s="73" t="n"/>
+      <c r="C1" s="73" t="n"/>
+      <c r="D1" s="73" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="69" t="n"/>
-      <c r="G1" s="69" t="n"/>
-      <c r="H1" s="69" t="n"/>
-      <c r="I1" s="69" t="n"/>
-    </row>
-    <row customHeight="1" ht="60.75" r="2" s="68" spans="1:11" thickBot="1">
+      <c r="F1" s="73" t="n"/>
+      <c r="G1" s="73" t="n"/>
+      <c r="H1" s="73" t="n"/>
+      <c r="I1" s="73" t="n"/>
+    </row>
+    <row customHeight="1" ht="60.75" r="2" s="72" spans="1:11" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1131,7 @@
       </c>
       <c r="K2" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="3" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="3" s="72" spans="1:11">
       <c r="A3" s="11" t="n"/>
       <c r="B3" s="7" t="n"/>
       <c r="C3" s="7" t="n"/>
@@ -1112,7 +1144,7 @@
       <c r="J3" s="31" t="n"/>
       <c r="K3" s="52" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="4" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="4" s="72" spans="1:11">
       <c r="A4" s="12" t="n"/>
       <c r="B4" s="6" t="n"/>
       <c r="C4" s="6" t="n"/>
@@ -1125,7 +1157,7 @@
       <c r="J4" s="30" t="n"/>
       <c r="K4" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="5" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="5" s="72" spans="1:11">
       <c r="A5" s="12" t="n"/>
       <c r="B5" s="6" t="n"/>
       <c r="C5" s="6" t="n"/>
@@ -1138,7 +1170,7 @@
       <c r="J5" s="30" t="n"/>
       <c r="K5" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="6" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="6" s="72" spans="1:11">
       <c r="A6" s="12" t="n"/>
       <c r="B6" s="6" t="n"/>
       <c r="C6" s="6" t="n"/>
@@ -1151,7 +1183,7 @@
       <c r="J6" s="30" t="n"/>
       <c r="K6" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="7" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="7" s="72" spans="1:11">
       <c r="A7" s="12" t="n"/>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="6" t="n"/>
@@ -1164,7 +1196,7 @@
       <c r="J7" s="30" t="n"/>
       <c r="K7" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="8" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="8" s="72" spans="1:11">
       <c r="A8" s="12" t="n"/>
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="n"/>
@@ -1177,7 +1209,7 @@
       <c r="J8" s="30" t="n"/>
       <c r="K8" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="9" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="9" s="72" spans="1:11">
       <c r="A9" s="12" t="n"/>
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="n"/>
@@ -1190,7 +1222,7 @@
       <c r="J9" s="30" t="n"/>
       <c r="K9" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="10" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="10" s="72" spans="1:11">
       <c r="A10" s="12" t="n"/>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
@@ -1203,7 +1235,7 @@
       <c r="J10" s="30" t="n"/>
       <c r="K10" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="11" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="11" s="72" spans="1:11">
       <c r="A11" s="12" t="n"/>
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="n"/>
@@ -1216,7 +1248,7 @@
       <c r="J11" s="30" t="n"/>
       <c r="K11" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="12" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="12" s="72" spans="1:11">
       <c r="A12" s="12" t="n"/>
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="n"/>
@@ -1229,7 +1261,7 @@
       <c r="J12" s="30" t="n"/>
       <c r="K12" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="13" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="13" s="72" spans="1:11">
       <c r="A13" s="12" t="n"/>
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="n"/>
@@ -1242,7 +1274,7 @@
       <c r="J13" s="30" t="n"/>
       <c r="K13" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="14" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="14" s="72" spans="1:11">
       <c r="A14" s="12" t="n"/>
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="n"/>
@@ -1255,7 +1287,7 @@
       <c r="J14" s="30" t="n"/>
       <c r="K14" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="15" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="15" s="72" spans="1:11">
       <c r="A15" s="12" t="n"/>
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="n"/>
@@ -1268,7 +1300,7 @@
       <c r="J15" s="30" t="n"/>
       <c r="K15" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="16" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="16" s="72" spans="1:11">
       <c r="A16" s="12" t="n"/>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="n"/>
@@ -1281,7 +1313,7 @@
       <c r="J16" s="30" t="n"/>
       <c r="K16" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="17" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="17" s="72" spans="1:11">
       <c r="A17" s="12" t="n"/>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
@@ -1294,7 +1326,7 @@
       <c r="J17" s="30" t="n"/>
       <c r="K17" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="18" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="18" s="72" spans="1:11">
       <c r="A18" s="12" t="n"/>
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
@@ -1307,7 +1339,7 @@
       <c r="J18" s="30" t="n"/>
       <c r="K18" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="19" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="19" s="72" spans="1:11">
       <c r="A19" s="12" t="n"/>
       <c r="B19" s="6" t="n"/>
       <c r="C19" s="6" t="n"/>
@@ -1320,7 +1352,7 @@
       <c r="J19" s="30" t="n"/>
       <c r="K19" s="53" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="20" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="20" s="72" spans="1:11">
       <c r="A20" s="12" t="n"/>
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="6" t="n"/>
@@ -1333,7 +1365,7 @@
       <c r="J20" s="33" t="n"/>
       <c r="K20" s="54" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="21" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="21" s="72" spans="1:11">
       <c r="A21" s="13" t="n"/>
       <c r="B21" s="10" t="n"/>
       <c r="C21" s="10" t="n"/>
@@ -1346,7 +1378,7 @@
       <c r="J21" s="34" t="n"/>
       <c r="K21" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="22" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="22" s="72" spans="1:11">
       <c r="A22" s="13" t="n"/>
       <c r="B22" s="10" t="n"/>
       <c r="C22" s="10" t="n"/>
@@ -1359,20 +1391,28 @@
       <c r="J22" s="34" t="n"/>
       <c r="K22" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="23" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="23" s="72" spans="1:11">
       <c r="A23" s="13" t="n"/>
       <c r="B23" s="10" t="n"/>
       <c r="C23" s="10" t="n"/>
-      <c r="D23" s="10" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="10" t="n"/>
-      <c r="G23" s="10" t="n"/>
+      <c r="D23" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>12</v>
+      </c>
       <c r="H23" s="10" t="n"/>
       <c r="I23" s="23" t="n"/>
       <c r="J23" s="34" t="n"/>
       <c r="K23" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="24" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="24" s="72" spans="1:11">
       <c r="A24" s="13" t="n"/>
       <c r="B24" s="10" t="n"/>
       <c r="C24" s="10" t="n"/>
@@ -1385,7 +1425,7 @@
       <c r="J24" s="34" t="n"/>
       <c r="K24" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="25" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="25" s="72" spans="1:11">
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="10" t="n"/>
       <c r="C25" s="10" t="n"/>
@@ -1398,7 +1438,7 @@
       <c r="J25" s="34" t="n"/>
       <c r="K25" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="26" s="68" spans="1:11">
+    <row customHeight="1" ht="26.1" r="26" s="72" spans="1:11">
       <c r="A26" s="13" t="n"/>
       <c r="B26" s="10" t="n"/>
       <c r="C26" s="10" t="n"/>
@@ -1411,7 +1451,7 @@
       <c r="J26" s="34" t="n"/>
       <c r="K26" s="55" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="27" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="27" s="72" spans="1:11" thickBot="1">
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="15" t="n"/>
       <c r="C27" s="15" t="n"/>
@@ -1424,61 +1464,61 @@
       <c r="J27" s="56" t="n"/>
       <c r="K27" s="57" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="28" s="68" spans="1:11" thickBot="1">
-      <c r="A28" s="67" t="n"/>
-      <c r="K28" s="69" t="n"/>
-    </row>
-    <row customHeight="1" ht="26.1" r="29" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="28" s="72" spans="1:11" thickBot="1">
+      <c r="A28" s="71" t="n"/>
+      <c r="K28" s="73" t="n"/>
+    </row>
+    <row customHeight="1" ht="26.1" r="29" s="72" spans="1:11" thickBot="1">
       <c r="A29" s="26" t="n"/>
       <c r="B29" s="59" t="n"/>
       <c r="C29" s="38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="37" t="n"/>
       <c r="E29" s="59" t="n"/>
       <c r="F29" s="50" t="n"/>
       <c r="G29" s="51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H29" s="59" t="n"/>
       <c r="I29" s="59" t="n"/>
       <c r="J29" s="59" t="n"/>
       <c r="K29" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="30" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="30" s="72" spans="1:11" thickBot="1">
       <c r="A30" s="26" t="n"/>
       <c r="B30" s="59" t="n"/>
       <c r="C30" s="38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D30" s="64" t="n">
-        <v>5698741692</v>
+        <v>5820597</v>
       </c>
       <c r="E30" s="61" t="n"/>
       <c r="F30" s="27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="26.1" r="31" s="68" spans="1:11" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="26.1" r="31" s="72" spans="1:11" thickBot="1">
       <c r="A31" s="26" t="n"/>
       <c r="B31" s="59" t="n"/>
       <c r="C31" s="38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D31" s="25" t="n"/>
       <c r="E31" s="61" t="n"/>
@@ -1493,11 +1533,11 @@
       <c r="J31" s="21" t="n"/>
       <c r="K31" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="32" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="32" s="72" spans="1:11" thickBot="1">
       <c r="A32" s="26" t="n"/>
       <c r="B32" s="59" t="n"/>
       <c r="C32" s="38" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="25" t="n"/>
       <c r="E32" s="61" t="n"/>
@@ -1512,11 +1552,11 @@
       <c r="J32" s="21" t="n"/>
       <c r="K32" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="33" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="33" s="72" spans="1:11" thickBot="1">
       <c r="A33" s="26" t="n"/>
       <c r="B33" s="59" t="n"/>
       <c r="C33" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" s="25" t="n"/>
       <c r="E33" s="61" t="n"/>
@@ -1531,11 +1571,11 @@
       <c r="J33" s="21" t="n"/>
       <c r="K33" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="34" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="34" s="72" spans="1:11" thickBot="1">
       <c r="A34" s="26" t="n"/>
       <c r="B34" s="59" t="n"/>
       <c r="C34" s="38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34" s="40" t="n"/>
       <c r="E34" s="41" t="n"/>
@@ -1550,12 +1590,12 @@
       <c r="J34" s="21" t="n"/>
       <c r="K34" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="35" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="35" s="72" spans="1:11" thickBot="1">
       <c r="A35" s="42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D35" s="43" t="n"/>
       <c r="E35" s="44" t="n"/>
@@ -1570,11 +1610,11 @@
       <c r="J35" s="21" t="n"/>
       <c r="K35" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="36" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="36" s="72" spans="1:11" thickBot="1">
       <c r="A36" s="45" t="n"/>
       <c r="B36" s="39" t="n"/>
       <c r="C36" s="39" t="n"/>
-      <c r="D36" s="69" t="n"/>
+      <c r="D36" s="73" t="n"/>
       <c r="E36" s="46" t="n"/>
       <c r="F36" s="17" t="n">
         <v>180000</v>
@@ -1587,7 +1627,7 @@
       <c r="J36" s="21" t="n"/>
       <c r="K36" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="37" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="37" s="72" spans="1:11" thickBot="1">
       <c r="A37" s="45" t="n"/>
       <c r="B37" s="39" t="n"/>
       <c r="C37" s="39" t="n"/>
@@ -1604,7 +1644,7 @@
       <c r="J37" s="21" t="n"/>
       <c r="K37" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="38" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="38" s="72" spans="1:11" thickBot="1">
       <c r="A38" s="45" t="n"/>
       <c r="B38" s="39" t="n"/>
       <c r="C38" s="39" t="n"/>
@@ -1621,7 +1661,7 @@
       <c r="J38" s="21" t="n"/>
       <c r="K38" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="39" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="39" s="72" spans="1:11" thickBot="1">
       <c r="A39" s="45" t="n"/>
       <c r="B39" s="39" t="n"/>
       <c r="C39" s="39" t="n"/>
@@ -1638,7 +1678,7 @@
       <c r="J39" s="21" t="n"/>
       <c r="K39" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="26.1" r="40" s="68" spans="1:11" thickBot="1">
+    <row customHeight="1" ht="26.1" r="40" s="72" spans="1:11" thickBot="1">
       <c r="A40" s="47" t="n"/>
       <c r="B40" s="48" t="n"/>
       <c r="C40" s="48" t="n"/>
@@ -1655,46 +1695,46 @@
       <c r="J40" s="21" t="n"/>
       <c r="K40" s="61" t="n"/>
     </row>
-    <row customHeight="1" ht="69.95" r="41" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="42" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="43" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="44" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="45" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="46" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="47" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="48" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="49" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="50" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="51" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="52" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="53" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="54" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="55" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="56" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="57" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="58" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="59" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="60" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="61" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="62" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="63" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="64" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="65" s="68" spans="1:11"/>
-    <row customHeight="1" ht="26.1" r="66" s="68" spans="1:11"/>
-    <row customHeight="1" ht="15.75" r="67" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="68" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="69" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="70" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="71" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="72" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="73" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="74" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="75" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="76" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="77" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="78" s="68" spans="1:11"/>
-    <row customHeight="1" ht="24.95" r="79" s="68" spans="1:11"/>
-    <row customHeight="1" ht="15.75" r="80" s="68" spans="1:11">
+    <row customHeight="1" ht="9" r="41" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="42" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="43" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="44" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="45" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="46" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="47" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="48" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="49" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="50" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="51" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="52" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="53" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="54" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="55" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="56" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="57" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="58" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="59" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="60" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="61" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="62" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="63" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="64" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="65" s="72" spans="1:11"/>
+    <row customHeight="1" ht="26.1" r="66" s="72" spans="1:11"/>
+    <row customHeight="1" ht="15.75" r="67" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="68" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="69" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="70" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="71" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="72" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="73" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="74" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="75" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="76" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="77" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="78" s="72" spans="1:11"/>
+    <row customHeight="1" ht="24.95" r="79" s="72" spans="1:11"/>
+    <row customHeight="1" ht="15.75" r="80" s="72" spans="1:11">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="n"/>
@@ -1716,6 +1756,6 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins bottom="0" footer="0.3149606299212598" header="0.3149606299212598" left="0.2362204724409449" right="0.2362204724409449" top="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="76" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="74" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Template_apl_cycles2.xlsx
+++ b/Template_apl_cycles2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="print2" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Area">print2!$A$1:$L$41</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
     <t>примітки:</t>
   </si>
   <si>
-    <t>correction is: 4624</t>
+    <t>correction is: 0</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="64" t="n">
-        <v>5820597</v>
+        <v>34002</v>
       </c>
       <c r="E30" s="61" t="n"/>
       <c r="F30" s="27" t="s">
